--- a/excel_templates/ШАБЛОН Эксель Футбол Исход.xlsx
+++ b/excel_templates/ШАБЛОН Эксель Футбол Исход.xlsx
@@ -307,7 +307,7 @@
     <t xml:space="preserve">П2/П2</t>
   </si>
   <si>
-    <t xml:space="preserve">{{ loop.index }}</t>
+    <t xml:space="preserve">{{ row.get('index') }}</t>
   </si>
   <si>
     <r>
@@ -901,7 +901,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1517,7 +1517,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="K11" activeCellId="0" sqref="K11"/>
+      <selection pane="bottomLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/excel_templates/ШАБЛОН Эксель Футбол Исход.xlsx
+++ b/excel_templates/ШАБЛОН Эксель Футбол Исход.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="126">
   <si>
     <t xml:space="preserve">Число</t>
   </si>
@@ -310,6 +310,9 @@
     <t xml:space="preserve">П2/П2</t>
   </si>
   <si>
+    <t xml:space="preserve">Ссылка</t>
+  </si>
+  <si>
     <t xml:space="preserve">{{ row.get('index') }}</t>
   </si>
   <si>
@@ -458,6 +461,9 @@
   </si>
   <si>
     <t xml:space="preserve">{{ row.get('58') }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{ row.get(‘url’) }}</t>
   </si>
 </sst>
 </file>
@@ -1520,10 +1526,10 @@
   </sheetPr>
   <dimension ref="A1:AQ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="L5" activeCellId="0" sqref="L5"/>
+      <selection pane="topLeft" activeCell="S1" activeCellId="0" sqref="S1"/>
+      <selection pane="bottomLeft" activeCell="AP8" activeCellId="0" sqref="AP8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2029,128 +2035,134 @@
       <c r="AO7" s="54" t="s">
         <v>83</v>
       </c>
+      <c r="AP7" s="6" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="15"/>
       <c r="B8" s="55" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C8" s="56" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D8" s="56" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E8" s="56" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F8" s="56" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G8" s="57" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H8" s="57" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I8" s="58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J8" s="58" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L8" s="59" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M8" s="59" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N8" s="59" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O8" s="60" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P8" s="60" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q8" s="60" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R8" s="59" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="S8" s="59" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="T8" s="59" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="U8" s="60" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="V8" s="60" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="W8" s="61" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="X8" s="61" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Y8" s="62" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Z8" s="63" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AA8" s="60" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AB8" s="60" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AC8" s="60" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AD8" s="59" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AE8" s="59" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF8" s="59" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG8" s="64" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AH8" s="64" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AI8" s="64" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AJ8" s="64" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AK8" s="64" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AL8" s="64" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AM8" s="64" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AN8" s="64" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AO8" s="64" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="AP8" s="6" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/excel_templates/ШАБЛОН Эксель Футбол Исход.xlsx
+++ b/excel_templates/ШАБЛОН Эксель Футбол Исход.xlsx
@@ -463,7 +463,7 @@
     <t xml:space="preserve">{{ row.get('58') }}</t>
   </si>
   <si>
-    <t xml:space="preserve">{{ row.get(‘url’) }}</t>
+    <t xml:space="preserve">{{ row.get('url') }}</t>
   </si>
 </sst>
 </file>
@@ -1529,7 +1529,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="S1" activeCellId="0" sqref="S1"/>
-      <selection pane="bottomLeft" activeCell="AP8" activeCellId="0" sqref="AP8"/>
+      <selection pane="bottomLeft" activeCell="AP9" activeCellId="0" sqref="AP9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/excel_templates/ШАБЛОН Эксель Футбол Исход.xlsx
+++ b/excel_templates/ШАБЛОН Эксель Футбол Исход.xlsx
@@ -62,7 +62,7 @@
     <t xml:space="preserve">Создай свою стратегию</t>
   </si>
   <si>
-    <t xml:space="preserve">№ </t>
+    <t xml:space="preserve">№</t>
   </si>
   <si>
     <t xml:space="preserve">Дата матча</t>
@@ -1141,7 +1141,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/excel_templates/ШАБЛОН Эксель Футбол Исход.xlsx
+++ b/excel_templates/ШАБЛОН Эксель Футбол Исход.xlsx
@@ -117,6 +117,9 @@
     <t xml:space="preserve">ИСХОД ПЕРВОГО ТАЙМА И МАТЧА</t>
   </si>
   <si>
+    <t xml:space="preserve">Ссылка</t>
+  </si>
+  <si>
     <t xml:space="preserve">Чис</t>
   </si>
   <si>
@@ -187,9 +190,6 @@
   </si>
   <si>
     <t xml:space="preserve">П2/П2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ссылка</t>
   </si>
   <si>
     <t xml:space="preserve">{{ row.get('index') }}</t>
@@ -1138,10 +1138,10 @@
   </sheetPr>
   <dimension ref="A1:AQ8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="X1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="X1" activeCellId="0" sqref="X1"/>
+      <selection pane="bottomLeft" activeCell="AP5" activeCellId="0" sqref="AP5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1424,23 +1424,25 @@
       <c r="AM5" s="25"/>
       <c r="AN5" s="25"/>
       <c r="AO5" s="25"/>
-      <c r="AP5" s="3"/>
+      <c r="AP5" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="AQ5" s="8"/>
     </row>
     <row r="6" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3"/>
       <c r="B6" s="14"/>
       <c r="C6" s="26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
@@ -1537,7 +1539,7 @@
       <c r="AO6" s="35" t="n">
         <v>58</v>
       </c>
-      <c r="AP6" s="3"/>
+      <c r="AP6" s="4"/>
       <c r="AQ6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1553,98 +1555,96 @@
       <c r="J7" s="18"/>
       <c r="K7" s="19"/>
       <c r="L7" s="36" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M7" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="N7" s="37" t="s">
+      <c r="P7" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="O7" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="P7" s="38" t="s">
-        <v>25</v>
-      </c>
       <c r="Q7" s="38" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R7" s="37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="S7" s="37" t="n">
         <v>12</v>
       </c>
       <c r="T7" s="37" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U7" s="38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V7" s="38" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="W7" s="39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X7" s="39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Y7" s="40" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Z7" s="41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AA7" s="38" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AB7" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC7" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD7" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="AC7" s="38" t="s">
+      <c r="AE7" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="AD7" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE7" s="37" t="s">
-        <v>25</v>
-      </c>
       <c r="AF7" s="37" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG7" s="42" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AH7" s="42" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AI7" s="42" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AJ7" s="42" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AK7" s="42" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AL7" s="42" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AM7" s="42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AN7" s="42" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AO7" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="AP7" s="8" t="s">
         <v>44</v>
       </c>
+      <c r="AP7" s="4"/>
       <c r="AQ7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1775,7 +1775,7 @@
       <c r="AQ8" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="29">
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="L1:V1"/>
     <mergeCell ref="W1:AB1"/>
@@ -1800,6 +1800,7 @@
     <mergeCell ref="AA5:AC5"/>
     <mergeCell ref="AD5:AF5"/>
     <mergeCell ref="AG5:AO5"/>
+    <mergeCell ref="AP5:AP7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
